--- a/bin/Debug/netcoreapp3.1/KnockOutStage.xlsx
+++ b/bin/Debug/netcoreapp3.1/KnockOutStage.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Groups" sheetId="1" r:id="R857c1a62d85644a5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="Rec1702c934214411"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Groups" sheetId="1" r:id="R272113bc10d44ccf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KO" sheetId="2" r:id="Rc97605438efc48e0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -14,25 +14,25 @@
     <x:row r="1"/>
     <x:row r="2">
       <x:c r="A2" t="str">
+        <x:v>R</x:v>
+      </x:c>
+      <x:c r="B2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" t="str">
+        <x:v>Q</x:v>
+      </x:c>
+      <x:c r="E2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2" t="str">
         <x:v>E</x:v>
       </x:c>
-      <x:c r="B2" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D2" t="str">
-        <x:v>W</x:v>
-      </x:c>
-      <x:c r="E2" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G2" t="str">
-        <x:v>F</x:v>
-      </x:c>
       <x:c r="H2" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J2" t="str">
-        <x:v>Q</x:v>
+        <x:v>D</x:v>
       </x:c>
       <x:c r="K2" t="n">
         <x:v>1</x:v>
@@ -43,49 +43,49 @@
         <x:v>A</x:v>
       </x:c>
       <x:c r="B3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D3" t="str">
         <x:v>A</x:v>
       </x:c>
       <x:c r="E3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G3" t="str">
         <x:v>D</x:v>
       </x:c>
       <x:c r="H3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J3" t="str">
-        <x:v>S</x:v>
+        <x:v>W</x:v>
       </x:c>
       <x:c r="K3" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4"/>
     <x:row r="5">
       <x:c r="A5" t="str">
-        <x:v>F</x:v>
+        <x:v>S</x:v>
       </x:c>
       <x:c r="B5" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D5" t="str">
-        <x:v>W</x:v>
+        <x:v>S</x:v>
       </x:c>
       <x:c r="E5" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G5" t="str">
-        <x:v>F</x:v>
+        <x:v>R</x:v>
       </x:c>
       <x:c r="H5" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J5" t="str">
-        <x:v>D</x:v>
+        <x:v>R</x:v>
       </x:c>
       <x:c r="K5" t="n">
         <x:v>1</x:v>
@@ -96,49 +96,49 @@
         <x:v>Q</x:v>
       </x:c>
       <x:c r="B6" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D6" t="str">
-        <x:v>R</x:v>
+        <x:v>A</x:v>
       </x:c>
       <x:c r="E6" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G6" t="str">
         <x:v>S</x:v>
       </x:c>
       <x:c r="H6" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J6" t="str">
-        <x:v>S</x:v>
+        <x:v>Q</x:v>
       </x:c>
       <x:c r="K6" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="7"/>
     <x:row r="8">
       <x:c r="A8" t="str">
+        <x:v>F</x:v>
+      </x:c>
+      <x:c r="B8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D8" t="str">
         <x:v>E</x:v>
       </x:c>
-      <x:c r="B8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D8" t="str">
-        <x:v>R</x:v>
-      </x:c>
       <x:c r="E8" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G8" t="str">
-        <x:v>E</x:v>
+        <x:v>F</x:v>
       </x:c>
       <x:c r="H8" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J8" t="str">
-        <x:v>Q</x:v>
+        <x:v>F</x:v>
       </x:c>
       <x:c r="K8" t="n">
         <x:v>1</x:v>
@@ -146,28 +146,28 @@
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="str">
-        <x:v>R</x:v>
+        <x:v>E</x:v>
       </x:c>
       <x:c r="B9" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D9" t="str">
-        <x:v>A</x:v>
+        <x:v>W</x:v>
       </x:c>
       <x:c r="E9" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G9" t="str">
         <x:v>W</x:v>
       </x:c>
       <x:c r="H9" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J9" t="str">
         <x:v>D</x:v>
       </x:c>
       <x:c r="K9" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="10"/>
@@ -181,32 +181,32 @@
     </x:row>
     <x:row r="15">
       <x:c r="A15" t="str">
-        <x:v>E</x:v>
+        <x:v>W</x:v>
       </x:c>
       <x:c r="B15" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C15" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" t="str">
-        <x:v>W</x:v>
+        <x:v>D</x:v>
       </x:c>
       <x:c r="B16" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C16" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="A17" t="str">
-        <x:v>R</x:v>
+        <x:v>E</x:v>
       </x:c>
       <x:c r="B17" t="n">
-        <x:v>0</x:v>
+        <x:v>-1</x:v>
       </x:c>
       <x:c r="C17" t="n">
         <x:v>3</x:v>
@@ -214,13 +214,13 @@
     </x:row>
     <x:row r="18">
       <x:c r="A18" t="str">
-        <x:v>A</x:v>
+        <x:v>F</x:v>
       </x:c>
       <x:c r="B18" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="C18" t="n">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="C18" t="n">
-        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="19"/>
@@ -231,13 +231,13 @@
     </x:row>
     <x:row r="21">
       <x:c r="A21" t="str">
-        <x:v>F</x:v>
+        <x:v>A</x:v>
       </x:c>
       <x:c r="B21" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C21" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
@@ -245,18 +245,18 @@
         <x:v>Q</x:v>
       </x:c>
       <x:c r="B22" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C22" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="str">
-        <x:v>D</x:v>
+        <x:v>S</x:v>
       </x:c>
       <x:c r="B23" t="n">
-        <x:v>0</x:v>
+        <x:v>-1</x:v>
       </x:c>
       <x:c r="C23" t="n">
         <x:v>3</x:v>
@@ -264,13 +264,13 @@
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="str">
-        <x:v>S</x:v>
+        <x:v>R</x:v>
       </x:c>
       <x:c r="B24" t="n">
+        <x:v>-3</x:v>
+      </x:c>
+      <x:c r="C24" t="n">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="C24" t="n">
-        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -294,7 +294,7 @@
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="str">
-        <x:v>5. Q</x:v>
+        <x:v>1. A</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -302,12 +302,12 @@
         <x:v>vs</x:v>
       </x:c>
       <x:c r="B4" t="str">
-        <x:v>5. Q</x:v>
+        <x:v>1. A</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="str">
-        <x:v>7. E</x:v>
+        <x:v>5. Q</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -315,12 +315,12 @@
         <x:v>vs</x:v>
       </x:c>
       <x:c r="C6" t="str">
-        <x:v>5. Q</x:v>
+        <x:v>1. A</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" t="str">
-        <x:v>6. W</x:v>
+        <x:v>3. D</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -328,12 +328,12 @@
         <x:v>vs</x:v>
       </x:c>
       <x:c r="B8" t="str">
-        <x:v>6. W</x:v>
+        <x:v>3. D</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="str">
-        <x:v>4. F</x:v>
+        <x:v>6. W</x:v>
       </x:c>
     </x:row>
     <x:row r="10"/>
